--- a/Outputs/1. Budget/Summary feed-in.xlsx
+++ b/Outputs/1. Budget/Summary feed-in.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,15 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0.39</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -504,13 +507,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.23</v>
+        <v>0.2300000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.23</v>
+        <v>0.2300000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.2300000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -594,88 +600,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>max_fit</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1900000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.2100000000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2200000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -723,34 +647,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.12</v>
+        <v>0.2299999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.12</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.12</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.12</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.12</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.12</v>
+        <v>0.2399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -758,95 +682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>max_fit</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -902,37 +738,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -996,37 +832,237 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>max_fit</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>max_fit</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.09000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Summary feed-in.xlsx
+++ b/Outputs/1. Budget/Summary feed-in.xlsx
@@ -7,14 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="400000" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="420000" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="750000" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1000000" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1250000" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1500000" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1750000" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2000000" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="420000" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="750000" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1000000" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1250000" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1500000" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1750000" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2000000" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,12 +441,18 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>0.39</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -458,13 +463,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.23</v>
+        <v>0.2300000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.23</v>
+        <v>0.2300000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.2300000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2300000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,15 +499,27 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>0.37</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>0.39</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -516,6 +539,18 @@
         <v>0.2300000000000001</v>
       </c>
       <c r="E2" t="n">
+        <v>0.2300000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2300000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2300000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2300000000000001</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.2300000000000001</v>
       </c>
     </row>
@@ -525,164 +560,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>max_fit</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2300000000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2300000000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2300000000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2300000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2300000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2300000000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2300000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>max_fit</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2299999999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -738,37 +615,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.16</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.17</v>
+        <v>0.2299999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.16</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.16</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.16</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.15</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.15</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.15</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.15</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.15</v>
+        <v>0.2399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -776,101 +653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>max_fit</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -929,40 +712,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1029,40 +812,252 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>max_fit</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>max_fit</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
